--- a/hasil_prediksi_manual.xlsx
+++ b/hasil_prediksi_manual.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Usia</t>
   </si>
@@ -77,13 +77,22 @@
   </si>
   <si>
     <t>Demam Reumatik</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>ya</t>
+  </si>
+  <si>
+    <t>tidak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +155,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,6 +238,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,6 +273,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,14 +449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>45</v>
       </c>
@@ -516,7 +534,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>50</v>
       </c>
@@ -554,7 +572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>60</v>
       </c>
@@ -592,7 +610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>35</v>
       </c>
@@ -630,7 +648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>55</v>
       </c>
@@ -668,7 +686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>40</v>
       </c>
@@ -706,7 +724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>65</v>
       </c>
@@ -744,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>48</v>
       </c>
@@ -782,7 +800,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>52</v>
       </c>
@@ -820,7 +838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>58</v>
       </c>
@@ -855,6 +873,41 @@
         <v>18</v>
       </c>
       <c r="L11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>151</v>
+      </c>
+      <c r="D12">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>190</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
       </c>
     </row>
